--- a/OrbisGame/Container/Data/Munitionstypen.xlsx
+++ b/OrbisGame/Container/Data/Munitionstypen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40165998-3A0D-42D2-A799-C8FBD63A14EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AE463-C033-4742-B904-2517243FC78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -420,12 +420,12 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -510,9 +510,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -560,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,7 +568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -576,7 +576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -593,13 +593,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C209C5-C5C4-49AE-A1B5-73F996D8CE92}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -663,7 +663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -680,16 +680,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E127BA0D-B8F8-4D15-84DD-E88B6B8EC153}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.26171875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -771,15 +771,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -827,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -835,7 +835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -864,12 +864,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -917,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -925,7 +925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -933,7 +933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -954,12 +954,12 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1044,13 +1044,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1135,13 +1135,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.05078125" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1226,13 +1226,13 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/OrbisGame/Container/Data/Munitionstypen.xlsx
+++ b/OrbisGame/Container/Data/Munitionstypen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AE463-C033-4742-B904-2517243FC78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABACD85-F348-4490-B89A-2E6D02C1F8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -420,12 +420,12 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -510,9 +510,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -520,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -560,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,7 +568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -576,7 +576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -593,13 +593,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C209C5-C5C4-49AE-A1B5-73F996D8CE92}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -663,7 +663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -684,12 +684,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -770,16 +770,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB656D9-87AA-4F4A-8FF1-FEEA014F76BC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -827,15 +827,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -843,12 +843,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -861,15 +861,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -917,15 +917,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -933,12 +933,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -951,15 +951,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1007,15 +1007,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1023,12 +1023,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1041,16 +1041,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.76171875" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1098,15 +1098,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1114,12 +1114,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1135,13 +1135,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1226,13 +1226,13 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/OrbisGame/Container/Data/Munitionstypen.xlsx
+++ b/OrbisGame/Container/Data/Munitionstypen.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABACD85-F348-4490-B89A-2E6D02C1F8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D488115-B85A-4EE4-9A4E-AEFB232DEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
     <sheet name="Scharf" sheetId="3" r:id="rId2"/>
-    <sheet name="AP" sheetId="2" r:id="rId3"/>
+    <sheet name="Botkin" sheetId="2" r:id="rId3"/>
     <sheet name="GiftT1" sheetId="4" r:id="rId4"/>
     <sheet name="GiftT2" sheetId="8" r:id="rId5"/>
     <sheet name="GiftT3" sheetId="9" r:id="rId6"/>
     <sheet name="GiftT4" sheetId="10" r:id="rId7"/>
     <sheet name="Brandkapsel" sheetId="7" r:id="rId8"/>
     <sheet name="Stumpf" sheetId="6" r:id="rId9"/>
-    <sheet name="TestDot" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -94,9 +93,6 @@
   </si>
   <si>
     <t>gift</t>
-  </si>
-  <si>
-    <t>Lel</t>
   </si>
 </sst>
 </file>
@@ -420,12 +416,12 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -433,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,7 +445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -457,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -465,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -473,7 +469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -481,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -489,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -499,93 +495,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC9FCA3-BFA7-4764-88D4-671A01C2F619}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -597,9 +506,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -607,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -623,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -631,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -639,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -647,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -655,7 +564,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -663,7 +572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -680,16 +589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E127BA0D-B8F8-4D15-84DD-E88B6B8EC153}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.234375" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -721,7 +630,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -729,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -737,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -745,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -753,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -770,16 +679,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB656D9-87AA-4F4A-8FF1-FEEA014F76BC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -787,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -803,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -811,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -819,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -827,7 +736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -835,7 +744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -843,7 +752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -864,12 +773,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -877,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -893,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -901,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -909,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -917,7 +826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -925,7 +834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -933,7 +842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -954,12 +863,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -967,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -975,7 +884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -991,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -999,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1044,13 +953,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.76171875" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1132,16 +1041,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1205,12 +1114,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1223,16 +1132,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1165,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +1181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/OrbisGame/Container/Data/Munitionstypen.xlsx
+++ b/OrbisGame/Container/Data/Munitionstypen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D488115-B85A-4EE4-9A4E-AEFB232DEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,21 @@
     <sheet name="Brandkapsel" sheetId="7" r:id="rId8"/>
     <sheet name="Stumpf" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,6 +46,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
   <si>
+    <t>Merkmal</t>
+  </si>
+  <si>
+    <t>Wert</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -47,15 +64,15 @@
     <t>AP</t>
   </si>
   <si>
-    <t>Wert</t>
-  </si>
-  <si>
-    <t>Merkmal</t>
+    <t>Betäubungschance</t>
   </si>
   <si>
     <t>DoTTyp</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>DotSchaden</t>
   </si>
   <si>
@@ -65,41 +82,35 @@
     <t>DotDauer</t>
   </si>
   <si>
-    <t>Betäubungschance</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Scharfe Spitze</t>
   </si>
   <si>
     <t>bluten</t>
   </si>
   <si>
-    <t>Scharfe Spitze</t>
-  </si>
-  <si>
     <t>Armor Piercing</t>
   </si>
   <si>
+    <t>Giftmunition</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>Brandkapsel</t>
+  </si>
+  <si>
     <t>brennen</t>
   </si>
   <si>
-    <t>Brandkapsel</t>
-  </si>
-  <si>
     <t>Stumpf</t>
-  </si>
-  <si>
-    <t>Giftmunition</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,78 +427,78 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -506,75 +517,75 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -593,78 +604,78 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -683,78 +694,78 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -773,78 +784,78 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -863,78 +874,78 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -953,79 +964,79 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -1044,79 +1055,79 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1135,79 +1146,79 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
